--- a/Assets/Resources/Boss1-1.xlsx
+++ b/Assets/Resources/Boss1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project-X\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B064E0-A75E-4FBD-A759-EEF1DD1C043C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7901E7B6-47F0-469B-95E2-D3EE51911B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8D66389-55E7-4091-B7AC-09D89F5D0576}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Boss1-1.xlsx
+++ b/Assets/Resources/Boss1-1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project-X\Assets\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7901E7B6-47F0-469B-95E2-D3EE51911B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8D66389-55E7-4091-B7AC-09D89F5D0576}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,34 +51,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,25 +76,41 @@
   </si>
   <si>
     <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,26 +451,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E8D9BF-195E-4D50-A91A-54E65B3E0DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,92 +478,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
